--- a/biology/Botanique/Lasimorpha_senegalensis/Lasimorpha_senegalensis.xlsx
+++ b/biology/Botanique/Lasimorpha_senegalensis/Lasimorpha_senegalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lasimorpha senegalensis (ou « Grand arum du Sénégal ») est une espèce de plantes de la famille des Araceae et du genre Lasimorpha, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasimorpha senegalensis (ou « Grand arum du Sénégal ») est une espèce de plantes de la famille des Araceae et du genre Lasimorpha, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une grande herbe pérenne produisant une touffe de feuilles émergeant d'un rhizome court et épais, fortement stolonifère. Elle fleurit la plupart de l'année[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une grande herbe pérenne produisant une touffe de feuilles émergeant d'un rhizome court et épais, fortement stolonifère. Elle fleurit la plupart de l'année.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très répandue, l'espèce est présente en Afrique tropicale, au Sénégal, au Cameroun, au Tchad, au Bénin, au Gabon, en république centrafricaine, en république démocratique du Congo, en Angola[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très répandue, l'espèce est présente en Afrique tropicale, au Sénégal, au Cameroun, au Tchad, au Bénin, au Gabon, en république centrafricaine, en république démocratique du Congo, en Angola.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre, souvent en abondance, à la lisière des forêts marécageuses, le long de cours d'eau à débit lent, près des mares[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre, souvent en abondance, à la lisière des forêts marécageuses, le long de cours d'eau à débit lent, près des mares.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles sont cuisinées en légumes, parfois seulement en situation de pénurie. On les utilise aussi pour envelopper les bâtons de manioc (chikwangue[2]).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles sont cuisinées en légumes, parfois seulement en situation de pénurie. On les utilise aussi pour envelopper les bâtons de manioc (chikwangue).
 	Fabrication de chikwangue en RDC.
-C'est aussi une plante médicinale dont les différentes parties sont utilisées notamment pour accélérer les accouchements, traiter le hoquet, soigner les ulcères. En décoction, elle a des propriétés analgésiques et sédatives. Les fruits entrent dans diverses préparations pour soigner la gonorrhée et la dysenterie[2].
+C'est aussi une plante médicinale dont les différentes parties sont utilisées notamment pour accélérer les accouchements, traiter le hoquet, soigner les ulcères. En décoction, elle a des propriétés analgésiques et sédatives. Les fruits entrent dans diverses préparations pour soigner la gonorrhée et la dysenterie.
 </t>
         </is>
       </c>
